--- a/data/output/predictions/y_test_importaciones.xlsx
+++ b/data/output/predictions/y_test_importaciones.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,58 +399,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B2">
-        <v>68285.0546875</v>
+        <v>67004.9765625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B3">
-        <v>68285.0546875</v>
+        <v>66977.78125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B4">
-        <v>68285.0546875</v>
+        <v>66976.84375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B5">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B6">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B7">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B8">
+        <v>66978.7734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>45473</v>
       </c>
-      <c r="B8">
-        <v>68264.671875</v>
+      <c r="B9">
+        <v>66986.1484375</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/predictions/y_test_importaciones.xlsx
+++ b/data/output/predictions/y_test_importaciones.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,66 +399,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B2">
-        <v>67004.9765625</v>
+        <v>64375.91624867727</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B3">
-        <v>66977.78125</v>
+        <v>63688.41889126987</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B4">
-        <v>66976.84375</v>
+        <v>63444.10397089949</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B5">
-        <v>66976.84375</v>
+        <v>63983.6832208995</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B6">
-        <v>66976.84375</v>
+        <v>64257.57096216934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B7">
-        <v>66976.84375</v>
+        <v>63262.37202407408</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B8">
-        <v>66978.7734375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>45473</v>
-      </c>
-      <c r="B9">
-        <v>66986.1484375</v>
+        <v>63036.08069074076</v>
       </c>
     </row>
   </sheetData>
